--- a/Labor_Handout/dokumente/pumpen vergleich.xlsx
+++ b/Labor_Handout/dokumente/pumpen vergleich.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\Labor_Handout\dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DF7607-F10E-410D-B5E1-B6936B6640F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A77E7A2-B8D8-4089-A813-3B25CA9EA2EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7CCB4E5-C270-48DB-ADEB-A6C799AD516E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F7CCB4E5-C270-48DB-ADEB-A6C799AD516E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Laborpumpe" sheetId="1" r:id="rId1"/>
+    <sheet name="Industriepumpe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Schlauchpumpe</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Anwendung</t>
   </si>
@@ -94,11 +92,181 @@
 - flexibel im Einbau</t>
   </si>
   <si>
+    <t>Schlauchpumpe
+(peristaltische Pumpe)</t>
+  </si>
+  <si>
+    <t>- hoher Verschleiß
+- empfindlich gegen organische Dämpfe</t>
+  </si>
+  <si>
+    <t>- mittlere Geräuschpegel
+- regelbares Fördervolumen
+- kostengünstig
+- sehr effizient
+- erreicht mehr Vakuum als Membranpumpe</t>
+  </si>
+  <si>
+    <t>- sensibel gegen Hochdruck
+- hoher Energiebedarf
+- pulsierender Volumenstrom</t>
+  </si>
+  <si>
+    <t>- gute Förderung von Gefahrstofffen (Giftstoffe, Säure, Basen) möglich
+- unempfindlich gegen Dauerbelastung
+- wartungsfreundlich
+- leckfrei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überdruck </t>
+  </si>
+  <si>
+    <t>Vakuum</t>
+  </si>
+  <si>
+    <t>Grob- bis Feinvakuum 
+Min: 0,5 mbar</t>
+  </si>
+  <si>
+    <t>- Förderung in der Lebensmittelindustrie
+- sinnvoll wenn ölfreies Vakuum benötigt wird
+- Förderung in der Chemie-, Umwelt-  und Verfahrenstechnik
+- als Laborpumpe
+- Fördern von Gasen und Flüssigkeiten
+- als Dosierpumpe</t>
+  </si>
+  <si>
     <t>- explosiongeschütze Räume
-- Mischen und Dosieren von Flüssigkeiten (und Gasen)
+- Mischen und Dosieren von Flüssigkeiten D5(und Gasen)
 - Feuerwehr: 
 &gt; Leerpumpen von vollgelaufenen Kellern
 &gt; Lenzpumpe für Löschschaum</t>
+  </si>
+  <si>
+    <t>Max: 300 bar</t>
+  </si>
+  <si>
+    <t>Förderleistung</t>
+  </si>
+  <si>
+    <t>20-500 m^3/h</t>
+  </si>
+  <si>
+    <t>Grob- bis Feinvakuum
+Min: 1 bis 0,001 mbar</t>
+  </si>
+  <si>
+    <t>Selbstansaugend ?</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>- Fördern von Flüssigkeiten und Gasen
+- als Laborpumpe</t>
+  </si>
+  <si>
+    <t>Max: 15 bar</t>
+  </si>
+  <si>
+    <t>75 m^3/h</t>
+  </si>
+  <si>
+    <t>Grobvakuum
+Min: 24 mbar</t>
+  </si>
+  <si>
+    <t>Max: 4 bar</t>
+  </si>
+  <si>
+    <t>Max: 2 bis 16 bar</t>
+  </si>
+  <si>
+    <t>100 m^3/h</t>
+  </si>
+  <si>
+    <t>25 bis 75 m^3/h</t>
+  </si>
+  <si>
+    <t>Hubkolbenpumpe</t>
+  </si>
+  <si>
+    <t>- als Dosierpumpe
+- Förderung von Flüssigkeiten und Gasen
+- Gasen werden zusätzlich verdichtet</t>
+  </si>
+  <si>
+    <t>- hohe Effizienz
+- sehr robust
+- mittlerer Geräuschpegel
+- ausgereifte Technik
+- 40% weniger Strom bei gleicher fördermenge im Vergleich zur Kreiselpumpe
+- hohe Betriebssicherheit
+- Undichtigkeit führt nicht zu Betriebsausfall</t>
+  </si>
+  <si>
+    <t>- keine regelmäßige  Förderung
+- Dichtung für Kolben nötig
+- gelten zum Teil als überholt</t>
+  </si>
+  <si>
+    <t>Kreiselpumpe/
+Zentrifugalpumpe</t>
+  </si>
+  <si>
+    <t>Max: 3500 bar</t>
+  </si>
+  <si>
+    <t>- kostengünstig
+- leichter als Kolbenpumpen
+- konstanter Förderstrom
+- lange Lebensdauer
+- optimal für hohe Leistungsspanne
+- Förderstrom über Ventil regelbar</t>
+  </si>
+  <si>
+    <t>Nein (und Ja)</t>
+  </si>
+  <si>
+    <t>- Kavitation muss beachtet werden
+- hoher Stromverbrauch
+- nicht für zähflüssige Medien geeignet
+- Volumenstrom vom Förderdruck abhängig</t>
+  </si>
+  <si>
+    <t>- Wasservesorgung
+- Gartenpumpen
+- in Heizungsanlagen als Vorlaufpumpe
+- Erdölförderung
+- Feuerwehr in Löschfahrzeugen
+- in Bergwerken zur Entwässerung</t>
+  </si>
+  <si>
+    <t>verschiedene Leistungsbereiche möglich</t>
+  </si>
+  <si>
+    <t>Flüssigkeitsringpumpe</t>
+  </si>
+  <si>
+    <t>- hohe Reibungsverluste
+- Betriebsflüssigkeit muss gekühlt werden
+- maximal erreichbares Vakuum begrenzt</t>
+  </si>
+  <si>
+    <t>- Funkenbildung wird durch Betriebsflüssigkeit vermieden
+- unempfindlich gegen Feststoffe
+- hohe Sicherheit für Verdichtung
+- relativ geringer Geräuschpegel
+- wenig Wartung nötig
+- gute Reinigung möglich</t>
+  </si>
+  <si>
+    <t>- Ansaughilfe für Kreiselpumpen
+- Vakuumpumpe
+- Verdichter (Isotherm möglich)</t>
+  </si>
+  <si>
+    <t>Max: 3 bar</t>
   </si>
 </sst>
 </file>
@@ -142,13 +310,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -156,6 +321,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FA8E0C-D65E-46B1-AD07-83A97585FFBC}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,67 +666,273 @@
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12261274-2106-4C30-9451-5A3B203C55B1}">
+  <dimension ref="C2:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Labor_Handout/dokumente/pumpen vergleich.xlsx
+++ b/Labor_Handout/dokumente/pumpen vergleich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\Labor_Handout\dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A77E7A2-B8D8-4089-A813-3B25CA9EA2EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E527A4-A587-4B65-B9A0-CEE3FED721BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F7CCB4E5-C270-48DB-ADEB-A6C799AD516E}"/>
+    <workbookView xWindow="5550" yWindow="315" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{F7CCB4E5-C270-48DB-ADEB-A6C799AD516E}"/>
   </bookViews>
   <sheets>
     <sheet name="Laborpumpe" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -336,6 +336,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -656,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FA8E0C-D65E-46B1-AD07-83A97585FFBC}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12261274-2106-4C30-9451-5A3B203C55B1}">
   <dimension ref="C2:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +870,7 @@
       <c r="G3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -888,11 +891,11 @@
       <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="10" t="s">
         <v>43</v>
       </c>
       <c r="J4" s="6"/>
@@ -910,23 +913,23 @@
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="6"/>
     </row>
   </sheetData>

--- a/Labor_Handout/dokumente/pumpen vergleich.xlsx
+++ b/Labor_Handout/dokumente/pumpen vergleich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\Labor_Handout\dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E527A4-A587-4B65-B9A0-CEE3FED721BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D121C679-3B48-489B-8361-F44713A63256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="315" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{F7CCB4E5-C270-48DB-ADEB-A6C799AD516E}"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="315" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{F7CCB4E5-C270-48DB-ADEB-A6C799AD516E}"/>
   </bookViews>
   <sheets>
     <sheet name="Laborpumpe" sheetId="1" r:id="rId1"/>
@@ -659,20 +659,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FA8E0C-D65E-46B1-AD07-83A97585FFBC}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="B2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="38.140625" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -808,6 +808,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -815,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12261274-2106-4C30-9451-5A3B203C55B1}">
   <dimension ref="C2:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
